--- a/biology/Botanique/Canistrum_fragrans/Canistrum_fragrans.xlsx
+++ b/biology/Botanique/Canistrum_fragrans/Canistrum_fragrans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canistrum fragrans est une espèce de plante de la famille des Bromeliaceae, endémique du Brésil
 </t>
@@ -511,34 +523,36 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Aechmea eburnea (E.Morren) Baker[2]
-Aechmea fusca Baker[2]
-Aechmea rosea (E.Morren) Baker[2]
-Aechmea viridis (E.Morren ex C.Morren) Baker[2]
-Billbergia canephora Baker[2]
-Canistrum binotii Mez[2]
-Canistrum eburneum E.Morren[2]
-Canistrum fuscum (Baker)[2]
-Canistrum lindenii Mez[2]
-Canistrum lindenii f. elatum Reitz[2]
-Canistrum lindenii f. exiguum Reitz[2]
-Canistrum lindenii f. humile Reitz[2]
-Canistrum lindenii f. magnum Reitz[2]
-Canistrum lindenii f. parvum Reitz[2]
-Canistrum lindenii var. pehnkii Reitz[2]
-Canistrum lindenii f. procerum Reitz[2]
-Canistrum lindenii var. roseum (E.Morren)[2]
-Canistrum lindenii var. viride (E.Morren ex C.Morren) Reitz[2]
-Canistrum roseum E.Morren[2]
-Canistrum viride E.Morren ex C.Morren[2]
-Edmundoa lindenii Leme[2]
-Edmundoa lindenii var. rosea (E.Morren) Leme[2]
-Guzmania fragrans Linden[2]
-Nidularium latifolium Baker[2]
-Nidularium lindenii Regel[2]
+Aechmea eburnea (E.Morren) Baker
+Aechmea fusca Baker
+Aechmea rosea (E.Morren) Baker
+Aechmea viridis (E.Morren ex C.Morren) Baker
+Billbergia canephora Baker
+Canistrum binotii Mez
+Canistrum eburneum E.Morren
+Canistrum fuscum (Baker)
+Canistrum lindenii Mez
+Canistrum lindenii f. elatum Reitz
+Canistrum lindenii f. exiguum Reitz
+Canistrum lindenii f. humile Reitz
+Canistrum lindenii f. magnum Reitz
+Canistrum lindenii f. parvum Reitz
+Canistrum lindenii var. pehnkii Reitz
+Canistrum lindenii f. procerum Reitz
+Canistrum lindenii var. roseum (E.Morren)
+Canistrum lindenii var. viride (E.Morren ex C.Morren) Reitz
+Canistrum roseum E.Morren
+Canistrum viride E.Morren ex C.Morren
+Edmundoa lindenii Leme
+Edmundoa lindenii var. rosea (E.Morren) Leme
+Guzmania fragrans Linden
+Nidularium latifolium Baker
+Nidularium lindenii Regel
 </t>
         </is>
       </c>
